--- a/REGULAR/OJT/DIMAPILIS, ELIZABETH A..xlsx
+++ b/REGULAR/OJT/DIMAPILIS, ELIZABETH A..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1130,7 +1130,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1173,7 +1173,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1237,7 +1237,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1297,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1363,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1426,7 +1426,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1524,7 +1524,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1583,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,7 +1648,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,7 +1691,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1766,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,7 +1952,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2018,7 +2018,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2076,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2142,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2198,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2273,7 +2273,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2316,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2382,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2438,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2536,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2599,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3048,7 +3048,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A90" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K109" sqref="K109"/>
+      <selection pane="bottomLeft" activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3205,7 +3205,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>78</v>
+        <v>79.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3215,7 +3215,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>106</v>
+        <v>107.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5305,15 +5305,17 @@
       <c r="B109" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C109" s="13"/>
+      <c r="C109" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D109" s="39">
         <v>3</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G109" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H109" s="39"/>
       <c r="I109" s="9"/>
@@ -5344,7 +5346,9 @@
       <c r="A111" s="40">
         <v>45292</v>
       </c>
-      <c r="B111" s="20"/>
+      <c r="B111" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
@@ -5356,7 +5360,9 @@
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
+      <c r="K111" s="49">
+        <v>45317</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
